--- a/Sprint-Backlog.xlsx
+++ b/Sprint-Backlog.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielmcguinness\Documents\GitHub\ResearchManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31995" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>User Story</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Perform download function</t>
-  </si>
-  <si>
-    <t>Give option to re-upload</t>
   </si>
   <si>
     <t>Give Path to File</t>
@@ -476,8 +473,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -788,20 +813,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.7265625" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" customWidth="1"/>
-    <col min="6" max="7" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,9 +846,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -838,20 +863,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -866,20 +891,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -894,20 +919,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -922,10 +947,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -940,25 +965,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -973,20 +998,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -995,31 +1018,31 @@
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -1028,21 +1051,21 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1051,77 +1074,77 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D38" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D39" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D42" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint-Backlog.xlsx
+++ b/Sprint-Backlog.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielmcguinness\Documents\GitHub\ResearchManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31995" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>User Story</t>
   </si>
@@ -38,57 +38,15 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Pair Assigned</t>
-  </si>
-  <si>
     <t>Estimated Effort</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Daniel, Aaron</t>
-  </si>
-  <si>
-    <t>Create Form</t>
-  </si>
-  <si>
-    <t>Add ASP Functionality</t>
-  </si>
-  <si>
     <t>Add CSS</t>
   </si>
   <si>
-    <t>Give Name</t>
-  </si>
-  <si>
-    <t>Give Details</t>
-  </si>
-  <si>
-    <t>Upload Excel File</t>
-  </si>
-  <si>
-    <t>Marc, Scott</t>
-  </si>
-  <si>
-    <t>Database Select Statement</t>
-  </si>
-  <si>
-    <t>Create and insert info into Form</t>
-  </si>
-  <si>
-    <t>Select * from Table</t>
-  </si>
-  <si>
-    <t>Marc,  Scott</t>
-  </si>
-  <si>
-    <t>Select * using selected Product ID</t>
-  </si>
-  <si>
-    <t>Bring into Form/Other view</t>
-  </si>
-  <si>
     <t>Add Options for other functions</t>
   </si>
   <si>
@@ -98,10 +56,7 @@
     <t>Perform download function</t>
   </si>
   <si>
-    <t>Give Path to File</t>
-  </si>
-  <si>
-    <t>File Upload</t>
+    <t>Give option to re-upload</t>
   </si>
   <si>
     <t>Add Comment to history table</t>
@@ -110,9 +65,6 @@
     <t>Update History table</t>
   </si>
   <si>
-    <t>Send Email</t>
-  </si>
-  <si>
     <t>Update Project Status - "Include further action from researcher"</t>
   </si>
   <si>
@@ -384,9 +336,6 @@
     </r>
   </si>
   <si>
-    <t>Connor, Ryan</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -394,6 +343,102 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Create and insert info into table</t>
+  </si>
+  <si>
+    <t>Select * from Table (using built in view generator)</t>
+  </si>
+  <si>
+    <t>Bring into Form/Other view (pass through session variable)</t>
+  </si>
+  <si>
+    <t>User selects file from file browser</t>
+  </si>
+  <si>
+    <t>File Upload function</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Estimated Velocity</t>
+  </si>
+  <si>
+    <t>Actual Velocity</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Arron</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Person Hours per 1 Complexity</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Create log in form in ASP.NET</t>
+  </si>
+  <si>
+    <t>Add additional required log in functionality with DB</t>
+  </si>
+  <si>
+    <t>Give project name</t>
+  </si>
+  <si>
+    <t>Give description of project</t>
+  </si>
+  <si>
+    <t>Upload excel file</t>
+  </si>
+  <si>
+    <t>Pull relevant data from DB</t>
+  </si>
+  <si>
+    <t>Retrieve data from database</t>
+  </si>
+  <si>
+    <t>Send Email to Signature</t>
+  </si>
+  <si>
+    <t>Send Email-</t>
   </si>
 </sst>
 </file>
@@ -473,36 +518,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,22 +828,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.08984375" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="6" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,314 +861,648 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F45" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>49</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>